--- a/Version1/BugTracker_v1.xlsx
+++ b/Version1/BugTracker_v1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TESTER\GURU_BANK\GURU99_BANK\Version1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Defects" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -746,7 +741,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -918,7 +913,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -970,7 +965,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1164,7 +1159,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1179,23 +1174,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="8" customWidth="1"/>
-    <col min="2" max="3" width="15.1796875" style="11"/>
-    <col min="4" max="4" width="7.453125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" style="11"/>
+    <col min="1" max="1" width="8.42578125" style="8" customWidth="1"/>
+    <col min="2" max="3" width="15.140625" style="11"/>
+    <col min="4" max="4" width="7.42578125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="11"/>
     <col min="6" max="6" width="28" style="8" customWidth="1"/>
-    <col min="7" max="7" width="37.54296875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.54296875" style="8" customWidth="1"/>
-    <col min="9" max="10" width="10.453125" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="15.1796875" style="8"/>
+    <col min="7" max="7" width="37.5703125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" style="8" customWidth="1"/>
+    <col min="9" max="10" width="10.42578125" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="15.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="62" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1239,7 +1234,7 @@
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
     </row>
-    <row r="2" spans="1:22" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1271,7 +1266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="62" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1303,7 +1298,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1335,7 +1330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1363,7 +1358,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:22" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1395,7 +1390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1427,7 +1422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1443,7 +1438,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:22" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1475,7 +1470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1507,7 +1502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1523,7 +1518,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:22" ht="31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1555,7 +1550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1587,7 +1582,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="62" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1619,7 +1614,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="62" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1651,7 +1646,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1683,7 +1678,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1715,7 +1710,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1747,7 +1742,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1779,7 +1774,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1811,7 +1806,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1843,7 +1838,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1875,7 +1870,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1907,7 +1902,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1939,7 +1934,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1971,7 +1966,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2003,7 +1998,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2035,7 +2030,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2067,7 +2062,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2099,7 +2094,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2131,7 +2126,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2163,7 +2158,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2195,7 +2190,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2227,7 +2222,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2259,7 +2254,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2291,7 +2286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2323,7 +2318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2355,7 +2350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2387,7 +2382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2419,7 +2414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2451,7 +2446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2483,7 +2478,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2515,7 +2510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2547,7 +2542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2579,7 +2574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2611,7 +2606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2643,7 +2638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2675,7 +2670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2707,7 +2702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2739,7 +2734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2771,7 +2766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2803,7 +2798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2835,7 +2830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2867,7 +2862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2899,7 +2894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -2931,7 +2926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2963,7 +2958,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -2995,7 +2990,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3027,7 +3022,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -3059,7 +3054,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3091,7 +3086,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3123,7 +3118,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3155,7 +3150,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -3187,7 +3182,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3219,7 +3214,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -3251,7 +3246,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -3283,7 +3278,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3315,7 +3310,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -3347,7 +3342,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -3379,7 +3374,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -3411,7 +3406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3443,7 +3438,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3475,7 +3470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3507,7 +3502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3539,7 +3534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3571,7 +3566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -3603,7 +3598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -3635,7 +3630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -3667,7 +3662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -3699,7 +3694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -3731,7 +3726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -3763,7 +3758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -3795,7 +3790,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -3827,7 +3822,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -3859,7 +3854,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -3891,7 +3886,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -3923,7 +3918,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -3955,7 +3950,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -3987,7 +3982,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -4019,7 +4014,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -4051,7 +4046,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -4083,7 +4078,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -4115,7 +4110,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -4147,7 +4142,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -4179,7 +4174,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -4211,7 +4206,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -4243,7 +4238,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -4275,7 +4270,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -4307,7 +4302,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -4339,7 +4334,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -4371,7 +4366,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -4403,7 +4398,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -4415,7 +4410,7 @@
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
     </row>
-    <row r="103" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -4427,7 +4422,7 @@
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
     </row>
-    <row r="104" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -4439,7 +4434,7 @@
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
     </row>
-    <row r="105" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -4451,7 +4446,7 @@
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
     </row>
-    <row r="106" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -4463,7 +4458,7 @@
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
     </row>
-    <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -4475,7 +4470,7 @@
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
     </row>
-    <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -4487,7 +4482,7 @@
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
     </row>
-    <row r="109" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -4499,7 +4494,7 @@
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
     </row>
-    <row r="110" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -4511,7 +4506,7 @@
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
     </row>
-    <row r="111" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -4523,7 +4518,7 @@
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
     </row>
-    <row r="112" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -4535,7 +4530,7 @@
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
     </row>
-    <row r="113" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -4547,7 +4542,7 @@
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
     </row>
-    <row r="114" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
